--- a/toxic-repos.xlsx
+++ b/toxic-repos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\repos\toxic-repos\toxic-repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stravnik\PycharmProjects\toxic-repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CA06A7-F836-4EBD-B48F-E3415F04FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD65496-329A-4528-9EC5-F7D4AD2CF1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" xr2:uid="{E6C1B433-5E75-4DBC-A364-F45F023E0242}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -81,79 +81,7 @@
     <t>все модули AWS для Terraform поддерживаемые сообществом, также сдублировалось в официальный Registry (https://registry.terraform.io/modules/terraform-aws-modules/vpc/aws/latest), внимание на "дополнительные соглашения" внизу README каждого модуля.</t>
   </si>
   <si>
-    <t>16.03.2022 19:09:15</t>
-  </si>
-  <si>
     <t>Политические лозунги</t>
-  </si>
-  <si>
-    <t>retejs/rete</t>
-  </si>
-  <si>
-    <t>https://github.com/retejs/rete/commit/d3ff828a41f96e34f04619eb44c688c913ee8def</t>
-  </si>
-  <si>
-    <t>#StandWithUkraine postinstall message</t>
-  </si>
-  <si>
-    <t>16.03.2022 19:21:10</t>
-  </si>
-  <si>
-    <t>composer - PHPшный менеджер пакетов</t>
-  </si>
-  <si>
-    <t>https://github.com/composer/packagist/commit/86244a3695fcaaac9c5ba4257a4314eae1c6d981</t>
-  </si>
-  <si>
-    <t>Выводится шильдик #StandWithUkrane</t>
-  </si>
-  <si>
-    <t>16.03.2022 19:24:10</t>
-  </si>
-  <si>
-    <t>PHPUnit</t>
-  </si>
-  <si>
-    <t>https://github.com/sebastianbergmann/phpunit/commit/4634e702b5f05f5e948e531eb8b4fc19be40610c</t>
-  </si>
-  <si>
-    <t>Шильдик #StandWithUkraine</t>
-  </si>
-  <si>
-    <t>16.03.2022 20:23:15</t>
-  </si>
-  <si>
-    <t>tasmota</t>
-  </si>
-  <si>
-    <t>https://github.com/arendst/Tasmota/commit/98cbf2587a1a914bbd16996ebb48dd451d3da448</t>
-  </si>
-  <si>
-    <t>Варьируется от сообщений в логе до неработоспособности устройства</t>
-  </si>
-  <si>
-    <t>16.03.2022 22:08:01</t>
-  </si>
-  <si>
-    <t>StandWithUkraine</t>
-  </si>
-  <si>
-    <t>https://github.com/vshymanskyy/StandWithUkraine</t>
-  </si>
-  <si>
-    <t>Список интегрировавших к себе призывы задонатить вна Украину в README.md</t>
-  </si>
-  <si>
-    <t>17.03.2022 0:05:49</t>
-  </si>
-  <si>
-    <t>Redis Desktop Manager (ранее - resp-app)</t>
-  </si>
-  <si>
-    <t>https://github.com/uglide/RedisDesktopManager/commit/3880176abbb0ee877672fd1ae74bda9546a4d1a6</t>
-  </si>
-  <si>
-    <t>Политические лозунги в README, политические коммиты с кодом в истории. Создатель - укр.</t>
   </si>
   <si>
     <t>17.03.2022 0:28:32</t>
@@ -270,54 +198,6 @@
     </r>
   </si>
   <si>
-    <t>17.03.2022 10:26:02</t>
-  </si>
-  <si>
-    <t>PHPstorm</t>
-  </si>
-  <si>
-    <t>https://blog.jetbrains.com/blog/2022/03/11/jetbrains-statement-on-ukraine/</t>
-  </si>
-  <si>
-    <t>Политические лоузнги и отказ при попытке продлить лицензию</t>
-  </si>
-  <si>
-    <t>17.03.2022 10:45:25</t>
-  </si>
-  <si>
-    <t>Политические лозунги, но не исключены и малвари</t>
-  </si>
-  <si>
-    <t>Группа проектов StandWithUkraine</t>
-  </si>
-  <si>
-    <t>https://github.com/vshymanskyy/StandWithUkraine#projects-that-standwithukraine</t>
-  </si>
-  <si>
-    <t>По ссылке список проектов участвующих в акции</t>
-  </si>
-  <si>
-    <t>17.03.2022 10:54:07</t>
-  </si>
-  <si>
-    <t>ECMAScript extensions</t>
-  </si>
-  <si>
-    <t>anti-war manifest</t>
-  </si>
-  <si>
-    <t>17.03.2022 10:55:40</t>
-  </si>
-  <si>
-    <t>verdaccio</t>
-  </si>
-  <si>
-    <t>https://github.com/verdaccio/verdaccio/pull/3060</t>
-  </si>
-  <si>
-    <t>Баннер в поддержку украины</t>
-  </si>
-  <si>
     <t>17.03.2022 12:16:23</t>
   </si>
   <si>
@@ -347,45 +227,6 @@
     </r>
   </si>
   <si>
-    <t>17.03.2022 11:59:10</t>
-  </si>
-  <si>
-    <t>Awesome Prometheus Alerts</t>
-  </si>
-  <si>
-    <t>https://github.com/samber/awesome-prometheus-alerts/commit/6bfcdcca165e57c6fa09a561515c33284caa20c2</t>
-  </si>
-  <si>
-    <t>Определяет активный у пользователя язык и редиректит на страницу с лозунгами. В следующих коммитах код удалили.</t>
-  </si>
-  <si>
-    <t>17.03.2022 11:46:57</t>
-  </si>
-  <si>
-    <t>https://docs.nestjs.com/</t>
-  </si>
-  <si>
-    <t>https://github.com/nestjs/docs.nestjs.com/commit/a411b74d114a1342170334e84e426b3259c3872c</t>
-  </si>
-  <si>
-    <t>В документации полит. лозунг "STOP RUSSIA'S INVASION OF UKRAINE"</t>
-  </si>
-  <si>
-    <t>17.03.2022 11:42:35</t>
-  </si>
-  <si>
-    <t>Политлозунги и призывы к блокировке сервисов, не исключен пуш malicious code в указанные в списки библиотеки</t>
-  </si>
-  <si>
-    <t>Stop Russia IT</t>
-  </si>
-  <si>
-    <t>https://github.com/stop-war-in-ukraine/stop-russia-it</t>
-  </si>
-  <si>
-    <t>По ссылке список сервисов, ссылок на обсуждения, петиции на change.org</t>
-  </si>
-  <si>
     <t>17.03.2022 12:56:07</t>
   </si>
   <si>
@@ -464,18 +305,6 @@
     <t>Удален с github</t>
   </si>
   <si>
-    <t>17.03.2022 14:38:21</t>
-  </si>
-  <si>
-    <t>plantUml web ресурс</t>
-  </si>
-  <si>
-    <t>https://plantuml.com/ru/</t>
-  </si>
-  <si>
-    <t>Я аналитик, я не найду пуш в репе. plantUML много где используется как библиотечка для документирования и плагин в Idea. Но конкретно сейчас я нашла это в web версии</t>
-  </si>
-  <si>
     <t>17.03.2022 14:58:58</t>
   </si>
   <si>
@@ -518,23 +347,62 @@
     <t>https://forum.unity.com/threads/unity-hub-3-1-release-overview.1253823/</t>
   </si>
   <si>
-    <t>17.03.2022 17:46:57</t>
-  </si>
-  <si>
-    <t>filestash</t>
-  </si>
-  <si>
-    <t>https://github.com/mickael-kerjean/filestash-website/commit/c30a31a583c827182c92cb8ec4b5e8ba1d854c3d</t>
-  </si>
-  <si>
-    <t>С помощью определения ip показывали видео обращение Зеленского. Сейчас убрали</t>
+    <t>17.03.2022 19:33:22</t>
+  </si>
+  <si>
+    <t>pnpm</t>
+  </si>
+  <si>
+    <t>https://github.com/pnpm/pnpm/commit/3c328ec465c597ff558c1f38afbfe2a0c1b02a83 , https://github.com/pnpm/pnpm/commit/0066c11b9779971349d323c9fffced0271535cb7</t>
+  </si>
+  <si>
+    <t>Заблокировал сайт pnpm.io для РФ и РБ</t>
+  </si>
+  <si>
+    <t>18.03.2022 12:10:55</t>
+  </si>
+  <si>
+    <t>Unity Ads</t>
+  </si>
+  <si>
+    <t>https://unity.com/products/unity-ads</t>
+  </si>
+  <si>
+    <t>Понимаю, что этот случай не относится к опенсорс продуктам, однако он тоже важен, в особенности для разработчиков игр. После встраивания рекламы Unity Ads в мобильную игру, пользователям из России игра начинают показывать вместо рекламы политические лозунги о свержении конституционного строя. Причём на устройстве разработчика ничего подобного не проявляется Мы чудом заметили это благодаря нашим игрокам бета-тестировщикам, которые получили обновление перед основным выпуском.</t>
+  </si>
+  <si>
+    <t>18.03.2022 11:04:05</t>
+  </si>
+  <si>
+    <t>Onefetch</t>
+  </si>
+  <si>
+    <t>https://github.com/o2sh/onefetch</t>
+  </si>
+  <si>
+    <t>При установке программы подменяет библиотеку libgcc_s.so.1, система перестает отвечать и после перезагрузки система выдает ошибку kernel panic.</t>
+  </si>
+  <si>
+    <t>18.03.2022 6:24:09</t>
+  </si>
+  <si>
+    <t>Судя по всему координационный центр атак</t>
+  </si>
+  <si>
+    <t>IT-ARMY-of-Ukraine-Resources-in-English</t>
+  </si>
+  <si>
+    <t>https://github.com/danieldanielecki/IT-ARMY-of-Ukraine-Resources-in-English</t>
+  </si>
+  <si>
+    <t>Подборка целей и инструментов для атак по инфраструктуре РФ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +489,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -756,77 +631,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C44F9C-1BE9-47E6-B9D1-9AC338C40B1A}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B27"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,757 +1063,557 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="1" t="s">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="B26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C26" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="D26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C30" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="C40" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D40" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="23" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="B13:B27"/>
-    <mergeCell ref="C13:C27"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A11:A25"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C11:C25"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.google.com/url?q=https://github.com/medikoo/es5-ext/commit/28de285ed433b45113f01e4ce7c74e9a356b2af2&amp;sa=D&amp;source=editors&amp;ust=1647543144316191&amp;usg=AOvVaw2iPJTWy6RXGyzSVbEzVlJU" xr:uid="{B947D6E3-C002-44C7-8026-1643C7821C24}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.google.com/url?q=https://github.com/terraform-aws-modules&amp;sa=D&amp;source=editors&amp;ust=1647543144316590&amp;usg=AOvVaw085FNxgqMKa8WOxjLVTQG1" xr:uid="{FF05C567-5BA2-4C87-A580-0A82DF7F81C6}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.google.com/url?q=https://github.com/retejs/rete/commit/d3ff828a41f96e34f04619eb44c688c913ee8def&amp;sa=D&amp;source=editors&amp;ust=1647543144316959&amp;usg=AOvVaw1QbLee5oBiDJRLwyUaiN8d" xr:uid="{FA518DA4-059C-48AA-B746-ACB8DFDDCEFA}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.google.com/url?q=https://github.com/composer/packagist/commit/86244a3695fcaaac9c5ba4257a4314eae1c6d981&amp;sa=D&amp;source=editors&amp;ust=1647543144317318&amp;usg=AOvVaw3N1XU4xOLh13Z1YJYiqLxK" xr:uid="{8626D343-0874-4087-AB98-606410F4735C}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.google.com/url?q=https://github.com/sebastianbergmann/phpunit/commit/4634e702b5f05f5e948e531eb8b4fc19be40610c&amp;sa=D&amp;source=editors&amp;ust=1647543144317590&amp;usg=AOvVaw22phxRsfuJlKkAbVuwlSlR" xr:uid="{F60C71C2-5006-4C61-A65E-F9ED823E87E5}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.google.com/url?q=https://github.com/arendst/Tasmota/commit/98cbf2587a1a914bbd16996ebb48dd451d3da448&amp;sa=D&amp;source=editors&amp;ust=1647543144317814&amp;usg=AOvVaw35Tt2KQ8nvSWUr58kFQJVM" xr:uid="{FF60252E-E22E-410D-95F6-E5BA8B243660}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.google.com/url?q=https://github.com/vshymanskyy/StandWithUkraine&amp;sa=D&amp;source=editors&amp;ust=1647543144318033&amp;usg=AOvVaw1uI-_7x0_JBwzHAN2SSkoY" xr:uid="{A7D15CF1-75AD-4502-BB12-61199191C2BD}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.google.com/url?q=https://github.com/uglide/RedisDesktopManager/commit/3880176abbb0ee877672fd1ae74bda9546a4d1a6&amp;sa=D&amp;source=editors&amp;ust=1647543144318285&amp;usg=AOvVaw1QF8ax6lksF_dGwAePubsr" xr:uid="{5D3A8E44-43B7-4F1A-BB24-AA383B518C02}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.google.com/url?q=https://github.com/vuejs/vue-cli/issues/7054&amp;sa=D&amp;source=editors&amp;ust=1647543144318534&amp;usg=AOvVaw1jeYgHb-1zi61zR023RlD7" xr:uid="{3EEDE02D-78A7-43FD-A27C-C2C045DF4A20}"/>
-    <hyperlink ref="C12" r:id="rId10" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/peacenotwar&amp;sa=D&amp;source=editors&amp;ust=1647543144318816&amp;usg=AOvVaw1JJtpEvzbjdfdgQSCsXyFn" xr:uid="{E2AE8E09-1DB9-4A6F-A7BE-5D7115BC3834}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/peacenotwar&amp;sa=D&amp;source=editors&amp;ust=1647543144318920&amp;usg=AOvVaw0IO0VlarHqDbhh8XKy_L-f" xr:uid="{6A74BD26-D074-48F1-9198-FF449453C5BE}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/node-ipc/issues/233&amp;sa=D&amp;source=editors&amp;ust=1647543144319254&amp;usg=AOvVaw0dTqzGbxkBRFVEx3pJLl9u" xr:uid="{AFA43FE1-AF46-447E-BCF1-8C166C430F7E}"/>
-    <hyperlink ref="D32" r:id="rId13" display="https://www.google.com/url?q=https://blog.jetbrains.com/blog/2022/03/11/jetbrains-statement-on-ukraine/&amp;sa=D&amp;source=editors&amp;ust=1647543144320267&amp;usg=AOvVaw1i-tcEsXMWFCSQHlWUXisz" xr:uid="{49AB1814-4D96-4B2F-8D15-A2221DD7FDED}"/>
-    <hyperlink ref="D33" r:id="rId14" display="https://www.google.com/url?q=https://github.com/vshymanskyy/StandWithUkraine%23projects-that-standwithukraine&amp;sa=D&amp;source=editors&amp;ust=1647543144320650&amp;usg=AOvVaw2ysPrys7si7_vYQR5abrlf" xr:uid="{DC6EBC32-3B8B-4775-9BD2-76117E37C4CB}"/>
-    <hyperlink ref="D34" r:id="rId15" display="https://www.google.com/url?q=https://github.com/medikoo/es5-ext/commit/28de285ed433b45113f01e4ce7c74e9a356b2af2&amp;sa=D&amp;source=editors&amp;ust=1647543144320918&amp;usg=AOvVaw1_nbJXR4Jwi890GAsSBUnC" xr:uid="{1653D1A8-5E33-464E-AACA-9AD133AC7B8A}"/>
-    <hyperlink ref="D35" r:id="rId16" display="https://www.google.com/url?q=https://github.com/verdaccio/verdaccio/pull/3060&amp;sa=D&amp;source=editors&amp;ust=1647543144321176&amp;usg=AOvVaw05G8STLD0wRQw9aZrMhZLX" xr:uid="{01AB2486-282F-4A78-B2F2-B53B787625EC}"/>
-    <hyperlink ref="D36" r:id="rId17" display="https://www.google.com/url?q=https://www.securitylab.ru/news/530550.php&amp;sa=D&amp;source=editors&amp;ust=1647543144321464&amp;usg=AOvVaw3BSwqyXrlz7MnQXfkTLid6" xr:uid="{B77C776F-81A2-4AFD-9414-2271B93293EA}"/>
-    <hyperlink ref="D37" r:id="rId18" display="https://www.google.com/url?q=https://github.com/samber/awesome-prometheus-alerts/commit/6bfcdcca165e57c6fa09a561515c33284caa20c2&amp;sa=D&amp;source=editors&amp;ust=1647543144321789&amp;usg=AOvVaw1TAGP2f5S5V2jwLR-H29_9" xr:uid="{0651507A-CB91-4BD2-82E2-8C881C8B34DF}"/>
-    <hyperlink ref="C38" r:id="rId19" display="https://www.google.com/url?q=https://docs.nestjs.com/&amp;sa=D&amp;source=editors&amp;ust=1647543144322110&amp;usg=AOvVaw3qWcupCoJVmdFNraOtsN0I" xr:uid="{33FEE6A4-8583-4310-980F-9C754CD47585}"/>
-    <hyperlink ref="D38" r:id="rId20" display="https://www.google.com/url?q=https://github.com/nestjs/docs.nestjs.com/commit/a411b74d114a1342170334e84e426b3259c3872c&amp;sa=D&amp;source=editors&amp;ust=1647543144322222&amp;usg=AOvVaw3id97fuEaZasA4DzOABQ_Y" xr:uid="{B8D077E6-56AF-4A6E-825B-3108472ADEAD}"/>
-    <hyperlink ref="D39" r:id="rId21" display="https://www.google.com/url?q=https://github.com/stop-war-in-ukraine/stop-russia-it&amp;sa=D&amp;source=editors&amp;ust=1647543144322540&amp;usg=AOvVaw1Nyk_yCnC43zvrk6wXiK4E" xr:uid="{DD101245-2E7A-40D7-83CD-14E8BF6487BF}"/>
-    <hyperlink ref="D40" r:id="rId22" display="https://www.google.com/url?q=https://packagist.org/packages/anton-shevchuk/yandex-xml-library&amp;sa=D&amp;source=editors&amp;ust=1647543144322864&amp;usg=AOvVaw0pY4F48Vp0OpcOWxZ93-eX" xr:uid="{67BB783E-6685-40B9-BA49-9FD701CC4162}"/>
-    <hyperlink ref="D41" r:id="rId23" display="https://www.google.com/url?q=https://github.com/vnestoruk/ban-dera&amp;sa=D&amp;source=editors&amp;ust=1647543144323191&amp;usg=AOvVaw2SGAzRVnj4-y-YYeKCN1vm" xr:uid="{47CE6999-70DE-4957-9B05-8115D3AAE105}"/>
-    <hyperlink ref="D42" r:id="rId24" display="https://www.google.com/url?q=https://drupal.ru/glyanec-scam&amp;sa=D&amp;source=editors&amp;ust=1647543144323515&amp;usg=AOvVaw2It874Rq4nyHQsB8BwFYWC" xr:uid="{9B671133-2479-4EE2-B175-A739C121802A}"/>
-    <hyperlink ref="D45" r:id="rId25" display="https://www.google.com/url?q=https://wordpress.org/plugins/mistape/&amp;sa=D&amp;source=editors&amp;ust=1647543144323846&amp;usg=AOvVaw3stnu9yRzUaRYYqNQChxLc" xr:uid="{B13C3DEB-6416-4A30-9257-2D936602F3FD}"/>
-    <hyperlink ref="C46" r:id="rId26" display="https://www.google.com/url?q=https://packagist.org/packages/fomvasss/laravel-dadata&amp;sa=D&amp;source=editors&amp;ust=1647543144324154&amp;usg=AOvVaw0BDpmgLLtbVvMLiyyhZZPt" xr:uid="{5BF6E568-8EF7-445B-AE7C-9C49254C2F80}"/>
-    <hyperlink ref="D46" r:id="rId27" display="https://www.google.com/url?q=https://github.com/fomvasss/laravel-dadata&amp;sa=D&amp;source=editors&amp;ust=1647543144324269&amp;usg=AOvVaw3HPkUkN9W8nCW1ui8_G82U" xr:uid="{4E52D2CD-2803-4A82-874A-17BF01DA94F1}"/>
-    <hyperlink ref="D47" r:id="rId28" display="https://www.google.com/url?q=https://plantuml.com/ru/&amp;sa=D&amp;source=editors&amp;ust=1647543144324585&amp;usg=AOvVaw1Q2o6Txhi4neVytyzSsI_T" xr:uid="{37346915-ED19-434F-AEF2-6CA987585994}"/>
-    <hyperlink ref="D48" r:id="rId29" display="https://www.google.com/url?q=https://support.circleci.com/hc/en-us/articles/360043679453-CircleCI-Terms-of-Service-Violation-Sanctioned-Country&amp;sa=D&amp;source=editors&amp;ust=1647543144324913&amp;usg=AOvVaw3OxnAy2rKxg-yYb4vGULmX" xr:uid="{0698A3DE-EDD1-488D-A6F9-3E58E2C5150A}"/>
-    <hyperlink ref="D49" r:id="rId30" display="https://www.google.com/url?q=https://github.com/uglide/RedisDesktopManager/commit/8b2b357d9d233100f84a69f81ed22b8caa04fa22&amp;sa=D&amp;source=editors&amp;ust=1647543144325239&amp;usg=AOvVaw3XIZ3lVCIp-JiSOqtXs32S" xr:uid="{F1CC8115-DCAC-4722-8833-A8D29460E668}"/>
-    <hyperlink ref="D50" r:id="rId31" display="https://www.google.com/url?q=https://github.com/vuejs/vue-cli/issues/7054&amp;sa=D&amp;source=editors&amp;ust=1647543144325559&amp;usg=AOvVaw0oVbT1ZEsykPGOe6MGTjn2" xr:uid="{B4E2805B-2BFF-4D0D-8F35-9D1EB5ADBEC1}"/>
-    <hyperlink ref="D53" r:id="rId32" display="https://www.google.com/url?q=https://github.com/mickael-kerjean/filestash-website/commit/c30a31a583c827182c92cb8ec4b5e8ba1d854c3d&amp;sa=D&amp;source=editors&amp;ust=1647543144325864&amp;usg=AOvVaw2DTdJMc--9pFsBjL8JEmYg" xr:uid="{732F1D10-2767-47E3-9F63-17DEEB6655DD}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.google.com/url?q=https://unity.com/products/unity-ads&amp;sa=D&amp;source=editors&amp;ust=1647622889326714&amp;usg=AOvVaw0G8kn6Q2F5LdRzuT_gueFZ" xr:uid="{0619EE01-FD92-4171-BCAD-41F0CD822F0C}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://www.google.com/url?q=https://github.com/o2sh/onefetch&amp;sa=D&amp;source=editors&amp;ust=1647622889327079&amp;usg=AOvVaw3UsSbqf3U0YSlTiiCwmwSJ" xr:uid="{8D923B66-A3C7-4E87-B8CD-0B8265A1B52B}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.google.com/url?q=https://github.com/danieldanielecki/IT-ARMY-of-Ukraine-Resources-in-English&amp;sa=D&amp;source=editors&amp;ust=1647622889327442&amp;usg=AOvVaw3Dt8URn6PYdMWW-mE1N0Xu" xr:uid="{C8038157-1418-4542-93BE-2EB767F81604}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://www.google.com/url?q=https://github.com/medikoo/es5-ext/commit/28de285ed433b45113f01e4ce7c74e9a356b2af2&amp;sa=D&amp;source=editors&amp;ust=1647622889327784&amp;usg=AOvVaw2fl6C0yo3Mao9Daq2-WprH" xr:uid="{3C00F913-9B19-4F81-9837-5E8C38C042A6}"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://www.google.com/url?q=https://github.com/terraform-aws-modules&amp;sa=D&amp;source=editors&amp;ust=1647622889328139&amp;usg=AOvVaw1boQj7wwHsy0kDunSJo84K" xr:uid="{6E1EC6BF-F649-420B-BFDA-5A5DB0CCC236}"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://www.google.com/url?q=https://github.com/vuejs/vue-cli/issues/7054&amp;sa=D&amp;source=editors&amp;ust=1647622889328427&amp;usg=AOvVaw1lWDdrsBqNat5MXQPxQ48B" xr:uid="{0B57ECF0-AD69-4CAD-B018-16C64A378A2B}"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/peacenotwar&amp;sa=D&amp;source=editors&amp;ust=1647622889328671&amp;usg=AOvVaw34SaAH3BJ8JIljqG8iozlP" xr:uid="{3EF46F27-E015-4261-8B4E-EB43149E64AA}"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/peacenotwar&amp;sa=D&amp;source=editors&amp;ust=1647622889328736&amp;usg=AOvVaw3BHC0jsdl64pOsDgjcCg6D" xr:uid="{E9A03088-E7BD-487C-9D3A-F2A5FE63ECBD}"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://www.google.com/url?q=https://github.com/RIAEvangelist/node-ipc/issues/233&amp;sa=D&amp;source=editors&amp;ust=1647622889329106&amp;usg=AOvVaw0rC8yitqAWdHR1SE_966lm" xr:uid="{85B97D75-68F5-43B6-846D-01603AFCAAFA}"/>
+    <hyperlink ref="D30" r:id="rId10" display="https://www.google.com/url?q=https://www.securitylab.ru/news/530550.php&amp;sa=D&amp;source=editors&amp;ust=1647622889329814&amp;usg=AOvVaw2F3rXVFRCGcFCtBn68jGPX" xr:uid="{87941FFC-DE36-419A-8494-60B641F7DF5D}"/>
+    <hyperlink ref="D31" r:id="rId11" display="https://www.google.com/url?q=https://packagist.org/packages/anton-shevchuk/yandex-xml-library&amp;sa=D&amp;source=editors&amp;ust=1647622889330161&amp;usg=AOvVaw2rfA5wqk4kmtvZYEaYTtur" xr:uid="{EB63B270-BA7B-4929-BC6B-90162C27795B}"/>
+    <hyperlink ref="D32" r:id="rId12" display="https://www.google.com/url?q=https://github.com/vnestoruk/ban-dera&amp;sa=D&amp;source=editors&amp;ust=1647622889330369&amp;usg=AOvVaw1Ge8sFLWSqdAAFOubkaP8j" xr:uid="{86FE2258-3D5F-4B81-8777-B90884EFCD1E}"/>
+    <hyperlink ref="D33" r:id="rId13" display="https://www.google.com/url?q=https://drupal.ru/glyanec-scam&amp;sa=D&amp;source=editors&amp;ust=1647622889330614&amp;usg=AOvVaw3NqkbNblwoaz_kkjSLMy--" xr:uid="{73C82090-7551-4FD1-8D93-8C65A86CE0B8}"/>
+    <hyperlink ref="D36" r:id="rId14" display="https://www.google.com/url?q=https://wordpress.org/plugins/mistape/&amp;sa=D&amp;source=editors&amp;ust=1647622889330834&amp;usg=AOvVaw22YnQYHGWBmIXwwu7dAypp" xr:uid="{3BCED1C5-2594-482D-B51F-5A8140FFCC6E}"/>
+    <hyperlink ref="C37" r:id="rId15" display="https://www.google.com/url?q=https://packagist.org/packages/fomvasss/laravel-dadata&amp;sa=D&amp;source=editors&amp;ust=1647622889331048&amp;usg=AOvVaw1qTs4i4HB_jX8OhmqvE6GF" xr:uid="{D24A7E29-8F29-483C-9B93-9605E9B97AF1}"/>
+    <hyperlink ref="D37" r:id="rId16" display="https://www.google.com/url?q=https://github.com/fomvasss/laravel-dadata&amp;sa=D&amp;source=editors&amp;ust=1647622889331103&amp;usg=AOvVaw1n5x4KqBfu_BO-WZFYC3jN" xr:uid="{6134BEFF-6D0D-402C-823A-A67F6AC98CE0}"/>
+    <hyperlink ref="D38" r:id="rId17" display="https://www.google.com/url?q=https://support.circleci.com/hc/en-us/articles/360043679453-CircleCI-Terms-of-Service-Violation-Sanctioned-Country&amp;sa=D&amp;source=editors&amp;ust=1647622889331302&amp;usg=AOvVaw3Vq9VFXDuL6IRhjSL-_T0T" xr:uid="{D64DCACD-5D1F-443E-BADD-4A256279262C}"/>
+    <hyperlink ref="D39" r:id="rId18" display="https://www.google.com/url?q=https://github.com/uglide/RedisDesktopManager/commit/8b2b357d9d233100f84a69f81ed22b8caa04fa22&amp;sa=D&amp;source=editors&amp;ust=1647622889331650&amp;usg=AOvVaw36yTcK8UOMhpBqgjOyrk16" xr:uid="{D2B6FAA5-D329-419C-92E4-D4CA9605B28E}"/>
+    <hyperlink ref="D40" r:id="rId19" display="https://www.google.com/url?q=https://github.com/vuejs/vue-cli/issues/7054&amp;sa=D&amp;source=editors&amp;ust=1647622889331911&amp;usg=AOvVaw3ytdEd2q7SU_WTw2P7sICN" xr:uid="{5033856D-D775-4DB7-B26E-72F74758DDAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>